--- a/ref/残業申請サンプル.xlsx
+++ b/ref/残業申請サンプル.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yamamoto-r\Desktop\残業申請サンプル\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\Jupyter\workhours\WorkHoursCalculator\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F991EB0F-8375-45F6-B311-9776B3004CB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB351210-FA27-456F-A490-6923D4E05752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0242893-F36C-4904-A138-681F164964B2}"/>
+    <workbookView xWindow="28680" yWindow="-2730" windowWidth="38640" windowHeight="21240" xr2:uid="{C0242893-F36C-4904-A138-681F164964B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
   <si>
     <t>1月</t>
     <rPh sb="1" eb="2">
@@ -96,19 +96,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>設計業務改善</t>
-    <rPh sb="0" eb="2">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カイゼン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今月の残業</t>
     <rPh sb="0" eb="2">
       <t>コンゲツ</t>
@@ -272,30 +259,6 @@
     <phoneticPr fontId="0"/>
   </si>
   <si>
-    <t>高田　康秀　　</t>
-    <rPh sb="0" eb="2">
-      <t>タカタ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヤスヒデ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開発管理</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>45h</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>残業時間</t>
     <rPh sb="0" eb="2">
       <t>ザンギョウ</t>
@@ -406,23 +369,6 @@
     </rPh>
     <rPh sb="3" eb="4">
       <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>40h</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6月実績（仮）</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -431,10 +377,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="180" formatCode="[h]:mm"/>
-    <numFmt numFmtId="181" formatCode="[h]:mm;@"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -465,7 +407,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -515,19 +457,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -637,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -683,31 +612,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1044,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B71CD-E6DF-4920-994E-AB8A3956450D}">
-  <dimension ref="B2:T45"/>
+  <dimension ref="B2:T43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1058,264 +984,277 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B2" s="8"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="10"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="9"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B3" s="11"/>
-      <c r="C3" t="s">
-        <v>49</v>
-      </c>
-      <c r="T3" s="12"/>
+      <c r="B3" s="10"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B4" s="11"/>
-      <c r="T4" s="12"/>
+      <c r="B4" s="10"/>
+      <c r="T4" s="11"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B5" s="11"/>
+      <c r="B5" s="10"/>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="11"/>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B6" s="10"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6" s="11"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B7" s="10"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="T7" s="11"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B8" s="10"/>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8" s="11"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B9" s="10"/>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T9" s="11"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B10" s="10"/>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L10" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T5" s="12"/>
-    </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B6" s="11"/>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="T10" s="11"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B11" s="10"/>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T11" s="11"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B12" s="10"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B13" s="10"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B14" s="10"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B15" s="10"/>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B16" s="10"/>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B17" s="10"/>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="10"/>
-      <c r="K6" s="11"/>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="12"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B7" s="11"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="7"/>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
-      <c r="T7" s="12"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B8" s="11"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="M8" t="s">
-        <v>29</v>
-      </c>
-      <c r="T8" s="12"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B9" s="11"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="T9" s="12"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B10" s="11"/>
-      <c r="T10" s="12"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B11" s="11"/>
-      <c r="C11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T17" s="11"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B18" s="10"/>
+      <c r="C18" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T18" s="11"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T19" s="11"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B20" s="10"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T11" s="12"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B12" s="11"/>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="T20" s="11"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B21" s="10"/>
+      <c r="C21" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" t="s">
+      <c r="D21" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="T12" s="12"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B13" s="11"/>
-      <c r="M13" t="s">
-        <v>28</v>
-      </c>
-      <c r="T13" s="12"/>
-    </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B14" s="11"/>
-      <c r="T14" s="12"/>
-    </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B15" s="11"/>
-      <c r="T15" s="12"/>
-    </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B16" s="11"/>
-      <c r="T16" s="12"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B17" s="11"/>
-      <c r="T17" s="12"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B18" s="11"/>
-      <c r="T18" s="12"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B19" s="11"/>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T19" s="12"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B20" s="11"/>
-      <c r="C20" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T20" s="12"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B21" s="11"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1330,72 +1269,70 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T21" s="11"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B22" s="10"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T21" s="12"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B22" s="11"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="4">
+      <c r="T22" s="11"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B23" s="10"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="4">
         <v>0.3</v>
       </c>
-      <c r="T22" s="12"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B23" s="11"/>
-      <c r="C23" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T23" s="12"/>
+      <c r="T23" s="11"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B24" s="11"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="3" t="s">
-        <v>22</v>
+      <c r="B24" s="10"/>
+      <c r="C24" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="22">
-        <v>18.072916666666668</v>
-      </c>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1403,63 +1340,63 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T24" s="11"/>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B25" s="10"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T24" s="12"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B25" s="11"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="4">
+      <c r="T25" s="11"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B26" s="10"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="4">
         <v>0.3</v>
       </c>
-      <c r="T25" s="12"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B26" s="11"/>
-      <c r="C26" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T26" s="12"/>
+      <c r="T26" s="11"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B27" s="11"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="3" t="s">
-        <v>22</v>
+      <c r="B27" s="10"/>
+      <c r="C27" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1474,63 +1411,63 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T27" s="11"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B28" s="10"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T27" s="12"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B28" s="11"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="4">
+      <c r="T28" s="11"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B29" s="10"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="4">
         <v>0.3</v>
       </c>
-      <c r="T28" s="12"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B29" s="11"/>
-      <c r="C29" s="19" t="s">
+      <c r="T29" s="11"/>
+    </row>
+    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B30" s="10"/>
+      <c r="C30" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T29" s="12"/>
-    </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B30" s="11"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="3" t="s">
-        <v>22</v>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1545,63 +1482,63 @@
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T30" s="11"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B31" s="10"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T30" s="12"/>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B31" s="11"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="4">
+      <c r="T31" s="11"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="4">
         <v>0.3</v>
       </c>
-      <c r="T31" s="12"/>
-    </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B32" s="11"/>
-      <c r="C32" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T32" s="12"/>
+      <c r="T32" s="11"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B33" s="11"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="3" t="s">
-        <v>22</v>
+      <c r="B33" s="10"/>
+      <c r="C33" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1616,63 +1553,63 @@
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T33" s="11"/>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B34" s="10"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T33" s="12"/>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B34" s="11"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="4">
+      <c r="T34" s="11"/>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B35" s="10"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="4">
         <v>0.3</v>
       </c>
-      <c r="T34" s="12"/>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B35" s="11"/>
-      <c r="C35" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T35" s="12"/>
+      <c r="T35" s="11"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B36" s="11"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="3" t="s">
-        <v>22</v>
+      <c r="B36" s="10"/>
+      <c r="C36" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1687,143 +1624,95 @@
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="T36" s="11"/>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B37" s="10"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="T36" s="12"/>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B37" s="11"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="4">
+      <c r="T37" s="11"/>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
+      <c r="B38" s="10"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5"/>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="4">
         <v>0.3</v>
       </c>
-      <c r="T37" s="12"/>
-    </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B38" s="11"/>
-      <c r="C38" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="T38" s="12"/>
+      <c r="T38" s="11"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B39" s="11"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="T39" s="12"/>
+      <c r="B39" s="10"/>
+      <c r="T39" s="11"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B40" s="11"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="T40" s="12"/>
+      <c r="B40" s="10"/>
+      <c r="T40" s="11"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B41" s="11"/>
-      <c r="T41" s="12"/>
+      <c r="B41" s="10"/>
+      <c r="T41" s="11"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B42" s="11"/>
-      <c r="T42" s="12"/>
+      <c r="B42" s="10"/>
+      <c r="D42" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T42" s="11"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B43" s="11"/>
-      <c r="T43" s="12"/>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B44" s="11"/>
-      <c r="D44" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="T44" s="12"/>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.15">
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="15"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/ref/残業申請サンプル.xlsx
+++ b/ref/残業申請サンプル.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data\Jupyter\workhours\WorkHoursCalculator\ref\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB351210-FA27-456F-A490-6923D4E05752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F244B6-2255-4FFC-A6BC-C359EB2C63C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2730" windowWidth="38640" windowHeight="21240" xr2:uid="{C0242893-F36C-4904-A138-681F164964B2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C0242893-F36C-4904-A138-681F164964B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>1月</t>
     <rPh sb="1" eb="2">
@@ -78,14 +78,6 @@
     <t>12月</t>
   </si>
   <si>
-    <t>8307h</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2429h</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>年累計</t>
     <rPh sb="0" eb="1">
       <t>ネン</t>
@@ -273,27 +265,6 @@
   </si>
   <si>
     <t>課</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開発管理課</t>
-    <rPh sb="0" eb="2">
-      <t>カイハツ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>174h</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>150h</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -566,7 +537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -632,9 +603,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,7 +941,7 @@
   <dimension ref="B2:T43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -1015,44 +983,37 @@
     <row r="5" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
         <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
       </c>
       <c r="T5" s="11"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B6" s="10"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
       <c r="L6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T6" s="11"/>
     </row>
@@ -1061,53 +1022,47 @@
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T7" s="11"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B8" s="10"/>
       <c r="M8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="T8" s="11"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B9" s="10"/>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="T9" s="11"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B10" s="10"/>
-      <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="L10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="T10" s="11"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B11" s="10"/>
       <c r="M11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="T11" s="11"/>
     </row>
@@ -1134,7 +1089,7 @@
     <row r="17" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B17" s="10"/>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>0</v>
@@ -1173,17 +1128,17 @@
         <v>11</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="T17" s="11"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B18" s="10"/>
       <c r="C18" s="18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1197,16 +1152,14 @@
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q18" s="2"/>
       <c r="T18" s="11"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B19" s="10"/>
       <c r="C19" s="19"/>
       <c r="D19" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1220,16 +1173,14 @@
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q19" s="2"/>
       <c r="T19" s="11"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B20" s="10"/>
       <c r="C20" s="20"/>
       <c r="D20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -1243,18 +1194,16 @@
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5"/>
-      <c r="Q20" s="4">
-        <v>0.3</v>
-      </c>
+      <c r="Q20" s="4"/>
       <c r="T20" s="11"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B21" s="10"/>
       <c r="C21" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1268,16 +1217,14 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q21" s="2"/>
       <c r="T21" s="11"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B22" s="10"/>
       <c r="C22" s="19"/>
       <c r="D22" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1291,16 +1238,14 @@
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q22" s="2"/>
       <c r="T22" s="11"/>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B23" s="10"/>
       <c r="C23" s="20"/>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1314,18 +1259,16 @@
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="5"/>
-      <c r="Q23" s="4">
-        <v>0.3</v>
-      </c>
+      <c r="Q23" s="4"/>
       <c r="T23" s="11"/>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B24" s="10"/>
       <c r="C24" s="18" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1339,16 +1282,14 @@
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
-      <c r="Q24" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q24" s="2"/>
       <c r="T24" s="11"/>
     </row>
     <row r="25" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B25" s="10"/>
       <c r="C25" s="19"/>
       <c r="D25" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1362,16 +1303,14 @@
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q25" s="2"/>
       <c r="T25" s="11"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B26" s="10"/>
       <c r="C26" s="20"/>
       <c r="D26" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -1385,18 +1324,16 @@
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
-      <c r="Q26" s="4">
-        <v>0.3</v>
-      </c>
+      <c r="Q26" s="4"/>
       <c r="T26" s="11"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B27" s="10"/>
       <c r="C27" s="18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1410,16 +1347,14 @@
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q27" s="2"/>
       <c r="T27" s="11"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B28" s="10"/>
       <c r="C28" s="19"/>
       <c r="D28" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1433,16 +1368,14 @@
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q28" s="2"/>
       <c r="T28" s="11"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B29" s="10"/>
       <c r="C29" s="20"/>
       <c r="D29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1456,18 +1389,16 @@
       <c r="N29" s="5"/>
       <c r="O29" s="5"/>
       <c r="P29" s="5"/>
-      <c r="Q29" s="4">
-        <v>0.3</v>
-      </c>
+      <c r="Q29" s="4"/>
       <c r="T29" s="11"/>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B30" s="10"/>
       <c r="C30" s="18" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1481,16 +1412,14 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q30" s="2"/>
       <c r="T30" s="11"/>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B31" s="10"/>
       <c r="C31" s="19"/>
       <c r="D31" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1504,16 +1433,14 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q31" s="2"/>
       <c r="T31" s="11"/>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B32" s="10"/>
       <c r="C32" s="20"/>
       <c r="D32" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -1527,18 +1454,16 @@
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="P32" s="5"/>
-      <c r="Q32" s="4">
-        <v>0.3</v>
-      </c>
+      <c r="Q32" s="4"/>
       <c r="T32" s="11"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B33" s="10"/>
       <c r="C33" s="18" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1552,16 +1477,14 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q33" s="2"/>
       <c r="T33" s="11"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B34" s="10"/>
       <c r="C34" s="19"/>
       <c r="D34" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1575,16 +1498,14 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q34" s="2"/>
       <c r="T34" s="11"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B35" s="10"/>
       <c r="C35" s="20"/>
       <c r="D35" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -1598,18 +1519,16 @@
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
-      <c r="Q35" s="4">
-        <v>0.3</v>
-      </c>
+      <c r="Q35" s="4"/>
       <c r="T35" s="11"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B36" s="10"/>
       <c r="C36" s="18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1623,16 +1542,14 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="Q36" s="2"/>
       <c r="T36" s="11"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B37" s="10"/>
       <c r="C37" s="19"/>
       <c r="D37" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1646,16 +1563,14 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="Q37" s="2"/>
       <c r="T37" s="11"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B38" s="10"/>
       <c r="C38" s="20"/>
       <c r="D38" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -1669,9 +1584,7 @@
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="P38" s="5"/>
-      <c r="Q38" s="4">
-        <v>0.3</v>
-      </c>
+      <c r="Q38" s="4"/>
       <c r="T38" s="11"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.15">
@@ -1689,7 +1602,7 @@
     <row r="42" spans="2:20" x14ac:dyDescent="0.15">
       <c r="B42" s="10"/>
       <c r="D42" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="T42" s="11"/>
     </row>
